--- a/biology/Zoologie/Henry_Wetherbee_Henshaw/Henry_Wetherbee_Henshaw.xlsx
+++ b/biology/Zoologie/Henry_Wetherbee_Henshaw/Henry_Wetherbee_Henshaw.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Henry Wetherbee Henshaw est un ornithologue et un ethnologue américain, né le 3 mars 1850 à Cambridge et mort le 1er août 1930.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il est le plus jeune enfant d’une fratrie de sept de William Henshaw et de Sarah née Holden. Il fait ses études à Cambridge et fréquente très tôt un petit groupe d’étudiants amateur d’ornithologie. Parmi eux, William Brewster (1851-1919) qui l’initie à la taxidermie, Charles Johnson Maynard (1845-1929) qui avait commencé à devenir récolteur professionnel[note 1]. Il devient un préparateur de dépouilles d’oiseaux extrêmement efficace et rapide. Sa santé, délicate, l’oblige à interrompre ses études avec les examens et à quitter Harvard en 1869.
 Henshaw participe à une longue croisière (automne 1869-été 1871) sur les côtes de Louisiane, à bord du Varina, où il récolte de nombreux oiseaux. Bien que sa santé se soit améliorer, il ne retourne pas à Harvard bien qu’il continue d’entretenir des relations avec ses anciens condisciples. Il noue aussi des relations avec Isaac Sprague (1811-1895), illustrateur naturaliste et ancien assistant de John James Audubon (1785-1851), avec Edward Augustus Samuels (1836-1908) qui rédigeait son livre Birds of New England, avec le  conchyliologiste Robert Edwards Carter Stearns (1827-1909) et avec l’auteur Bradford Torrey (1843-1912).
